--- a/data-raw/tinx_dac_wb_results.xlsx
+++ b/data-raw/tinx_dac_wb_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\misc_figures\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\misc_figures\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A8355-7D3D-42C4-844D-F9DD5562335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA715B8-A77A-4108-B3BA-BE2BAB376314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3DFB3BEF-FE51-4B8B-9775-9348BCB10BA9}"/>
+    <workbookView xWindow="1560" yWindow="615" windowWidth="14610" windowHeight="23385" xr2:uid="{3DFB3BEF-FE51-4B8B-9775-9348BCB10BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>reps1</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>reps1_p</t>
+  </si>
+  <si>
+    <t>ratio_increase</t>
+  </si>
+  <si>
+    <t>ratio_reps1p_reps</t>
   </si>
 </sst>
 </file>
@@ -440,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4A2BD4-4718-4932-8016-7CC090D42ACA}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -461,8 +467,14 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -475,8 +487,12 @@
       <c r="D2">
         <v>0.88787173093178817</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>0.98449146717041425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -489,8 +505,12 @@
       <c r="D3">
         <v>1.2725168920616887</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">D3/C3</f>
+        <v>0.79214528256483907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -503,8 +523,12 @@
       <c r="D4">
         <v>0.46020520854308833</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.49181223501276949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -517,8 +541,12 @@
       <c r="D5">
         <v>0.91786071903834321</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.026639653616563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -531,8 +559,12 @@
       <c r="D6">
         <v>0.62356369417783108</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.66652273176038634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -545,8 +577,12 @@
       <c r="D7">
         <v>1.0696820271332406</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.1463392841938338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -559,8 +595,16 @@
       <c r="D8">
         <v>1.198216292523663</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.4353739811952571</v>
+      </c>
+      <c r="F8">
+        <f>E8-E2</f>
+        <v>0.45088251402484281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -573,8 +617,16 @@
       <c r="D9">
         <v>1.4221136784217683</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.1116359580929316</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="1">E9-E3</f>
+        <v>0.31949067552809252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -587,8 +639,16 @@
       <c r="D10">
         <v>0.88979795254807326</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.3240204263621711</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.8322081913494016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -601,8 +661,16 @@
       <c r="D11">
         <v>0.50658737559225075</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.75670200566491996</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-0.26993764795164299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -615,8 +683,16 @@
       <c r="D12">
         <v>0.9579555371444608</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.2360979779670811</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.56957524620669475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -628,6 +704,14 @@
       </c>
       <c r="D13">
         <v>1.0708079716329528</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.8696445373880239</v>
+      </c>
+      <c r="F13">
+        <f>E13-E7</f>
+        <v>0.72330525319419015</v>
       </c>
     </row>
   </sheetData>
